--- a/codigo/2D/ejemplo_Q8/python/malla1.xlsx
+++ b/codigo/2D/ejemplo_Q8/python/malla1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -52,7 +52,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -70,13 +70,12 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -89,7 +88,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -112,7 +111,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -125,7 +124,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -138,7 +137,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -151,7 +150,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -164,7 +163,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -177,7 +176,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -200,7 +199,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -213,7 +212,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N</t>
+          <t>N</t>
         </r>
       </text>
     </comment>
@@ -231,12 +230,12 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Pa</t>
+          <t>Pa</t>
         </r>
       </text>
     </comment>
@@ -244,12 +243,12 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">kg/m^3</t>
+          <t>kg/m^3</t>
         </r>
       </text>
     </comment>
@@ -262,7 +261,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -273,88 +272,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
-    <t xml:space="preserve">nodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desplazamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elemento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuerza puntual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espesor</t>
+    <t>nodo</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>NL1</t>
+  </si>
+  <si>
+    <t>NL2</t>
+  </si>
+  <si>
+    <t>NL3</t>
+  </si>
+  <si>
+    <t>NL4</t>
+  </si>
+  <si>
+    <t>NL5</t>
+  </si>
+  <si>
+    <t>NL6</t>
+  </si>
+  <si>
+    <t>NL7</t>
+  </si>
+  <si>
+    <t>NL8</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>desplazamiento</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>lado</t>
+  </si>
+  <si>
+    <t>tix</t>
+  </si>
+  <si>
+    <t>tiy</t>
+  </si>
+  <si>
+    <t>tjx</t>
+  </si>
+  <si>
+    <t>tjy</t>
+  </si>
+  <si>
+    <t>tkx</t>
+  </si>
+  <si>
+    <t>tky</t>
+  </si>
+  <si>
+    <t>fuerza puntual</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>espesor</t>
   </si>
 </sst>
 </file>
@@ -362,7 +361,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
@@ -397,7 +396,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -493,15 +492,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -510,8 +509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,15 +537,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -555,8 +554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,15 +587,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>693000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -605,8 +604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10054800" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9866880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,15 +632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>693000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -650,8 +649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10054800" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9866880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,15 +682,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -700,8 +699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,15 +727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -745,8 +744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,15 +772,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -790,8 +789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,15 +817,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -835,8 +834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,15 +867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -885,8 +884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,15 +912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -930,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10073160" cy="9524160"/>
+          <a:off x="27000" y="0"/>
+          <a:ext cx="9867240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +970,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,17 +1351,17 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3724489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,9 +1617,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1802,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,16 +1858,16 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
